--- a/Plan/スケジュール関連/実装スケジュール.xlsx
+++ b/Plan/スケジュール関連/実装スケジュール.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" xr2:uid="{3D652424-3DBC-479B-A505-E29212F86E54}"/>
   </bookViews>
   <sheets>
-    <sheet name="夏コミまでの予定" sheetId="1" r:id="rId1"/>
+    <sheet name="予定" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -52,12 +52,13 @@
           </rPr>
           <t xml:space="preserve">
 ・戦闘検証終了
+  ・インゲーム基本プレイ可
 ・ゲームの方向性決定
 ・作成規模決定確認会</t>
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{155534C3-670A-4BAF-8FCB-0B7BD019CE6A}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{155534C3-670A-4BAF-8FCB-0B7BD019CE6A}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{EEE66D89-4D98-4222-BA7F-860BDF06CA9C}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{EEE66D89-4D98-4222-BA7F-860BDF06CA9C}">
       <text>
         <r>
           <rPr>
@@ -113,64 +114,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{FF3AEFC6-B10E-41DF-A796-A2548BC8C448}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>masataka:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-森本のつでで作れそうな友人探す。無理なら諦めるか、森本が作成</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{FD38008A-FA89-4CC3-8DA4-00EB57429D1A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>masataka:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-ついったーとか？まだ未定。もしかしたら友人のつてを借りるかも</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>企画期間</t>
     <rPh sb="0" eb="2">
@@ -214,26 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイト作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>告知系開始</t>
-    <rPh sb="0" eb="2">
-      <t>コクチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前</t>
     <rPh sb="0" eb="1">
       <t>マエ</t>
@@ -262,13 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>夏コミ</t>
-    <rPh sb="0" eb="1">
-      <t>ナツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デバッグ期間</t>
     <rPh sb="4" eb="6">
       <t>キカン</t>
@@ -293,9 +215,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←Steam登録も？</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
+    <t>デザイン方向性決定</t>
+    <rPh sb="4" eb="7">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -389,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,8 +564,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -654,8 +582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2666999" y="1666875"/>
-          <a:ext cx="1304925" cy="238125"/>
+          <a:off x="2305049" y="1905000"/>
+          <a:ext cx="1819276" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -696,15 +624,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -720,74 +648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="1905000"/>
-          <a:ext cx="1285875" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE14662-646F-46B9-BFDF-8D80C0C68028}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5257801" y="2143125"/>
-          <a:ext cx="1543049" cy="238125"/>
+          <a:off x="4124326" y="2143125"/>
+          <a:ext cx="1543050" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -830,21 +692,21 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894DB08F-8F05-4976-BBAF-B999B25D44B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE14662-646F-46B9-BFDF-8D80C0C68028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -852,14 +714,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6029325" y="2381250"/>
-          <a:ext cx="514350" cy="238125"/>
+          <a:off x="5667375" y="2381250"/>
+          <a:ext cx="1809750" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent2">
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -894,23 +756,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600A7314-AE3F-4D73-B930-D6C70706733E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F65760-2CF9-4009-86AA-35D93C65F1B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -918,14 +780,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543676" y="2619375"/>
-          <a:ext cx="1028700" cy="238125"/>
+          <a:off x="6696075" y="2619375"/>
+          <a:ext cx="1295400" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent4">
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -960,23 +822,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D4A168-729C-4627-B503-47AB34DCA621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B77F7C-7794-45DF-98F2-D7650213F7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,16 +846,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="2857501"/>
-          <a:ext cx="257175" cy="238124"/>
+          <a:off x="4124325" y="2143125"/>
+          <a:ext cx="1543050" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="0070C0">
+          <a:schemeClr val="accent1">
             <a:alpha val="50000"/>
-          </a:srgbClr>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1027,22 +889,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
+        <xdr:cNvPr id="10" name="吹き出し: 線 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F65760-2CF9-4009-86AA-35D93C65F1B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62B0CEC-F82C-4EAB-B606-08B6B8CCFADB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1050,33 +912,30 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286501" y="2381250"/>
-          <a:ext cx="1028699" cy="238125"/>
+          <a:off x="6076950" y="1743075"/>
+          <a:ext cx="1876425" cy="581025"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22029"/>
+            <a:gd name="adj2" fmla="val -971"/>
+            <a:gd name="adj3" fmla="val 171516"/>
+            <a:gd name="adj4" fmla="val -13793"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1084,7 +943,26 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本格的な量産、実装開始を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>末から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>頭くらい</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1390,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059418FA-02FF-4780-A5B1-23615D449551}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1405,21 +1283,22 @@
     <col min="6" max="7" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="24" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="25" max="26" width="3.375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1427,7 +1306,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
@@ -1444,8 +1323,10 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="B4" s="2"/>
       <c r="C4" s="4">
         <v>10</v>
@@ -1491,77 +1372,87 @@
         <v>8</v>
       </c>
       <c r="X4" s="4"/>
+      <c r="Y4" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1587,8 +1478,10 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1614,8 +1507,10 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1641,8 +1536,10 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1668,10 +1565,12 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:25">
-      <c r="B10" s="5" t="s">
-        <v>5</v>
+    <row r="10" spans="1:26">
+      <c r="B10" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1695,10 +1594,12 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1722,10 +1623,12 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1749,10 +1652,12 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1776,63 +1681,8 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
